--- a/pred_ohlcv/54_21/2020-01-16 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3138526.917147095</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3137793.116347095</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3198534.699947094</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>631249.7597558334</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>84967.42255583347</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>172754.3475558335</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>147754.3475558335</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>277774.3541558335</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-18439594.10766323</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-18439594.10766323</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-18439461.10766323</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-17887955.67336323</v>
       </c>
       <c r="H179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H180">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-18846814.62506323</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-18764897.44516322</v>
       </c>
       <c r="H187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-18226483.72596323</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-18506069.76726323</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-18509167.89396323</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-18647633.87366322</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-19279614.50756322</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-19279485.50756322</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-19352442.39756322</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-18768877.93622691</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-18817093.46292691</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-18590925.8024269</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-21702734.40724466</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-21930932.85574466</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-21930932.85574466</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-21362494.81124466</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-21364632.49664466</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-21364632.49664466</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-21310632.49664466</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-21282946.87914466</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-21279994.35224466</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-21276222.41284467</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-21292503.46244467</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-21294071.05974467</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-20733197.21880632</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-20715708.92890632</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-20707726.00600632</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-20707596.00600632</v>
       </c>
       <c r="H323">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H324">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H325">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H326">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H327">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-20733134.49070632</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-20733004.49070632</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-20735790.75260632</v>
       </c>
       <c r="H330">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-20898513.96680632</v>
       </c>
       <c r="H331">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H332">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H333">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H334">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23481853.98330632</v>
       </c>
       <c r="H335">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-23689682.74040632</v>
       </c>
       <c r="H337">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-24986743.01789124</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-24997986.10299123</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-15725899.42575976</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-14256022.88283136</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-13344805.68823136</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-11603029.49838137</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-11767536.07738137</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-12162031.88278137</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-12051201.62028137</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-11991442.83868137</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-9234172.403487012</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>9325809.38379138</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>9477708.744745445</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>8736270.11329951</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>8856411.93009951</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8509659.328599509</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8475249.813399509</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>8608078.117199508</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>9269528.334099507</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>9030803.062299507</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>7997007.267699507</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>7624932.083499507</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5775638.432699507</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>7717949.420599508</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>7355558.778799508</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>7355981.748799508</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>7271579.146799508</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>7257158.461799508</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>7098454.638999508</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>6729323.112299507</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>6484887.144099507</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>6451244.236899508</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 PLY ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PLY ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>3138526.917147095</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>3137793.116347095</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>3135454.860447095</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>4069768.539147095</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -756,7 +756,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>4233852.573147095</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>3198534.699947094</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>786528.8423558334</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>631249.7597558334</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>84967.42255583347</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>172754.3475558335</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>147754.3475558335</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>277774.3541558335</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>121150.2538558335</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-18776814.62506323</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-18764897.44516322</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-18226483.72596323</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-18506069.76726323</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-18509167.89396323</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-18632584.32896322</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-18647633.87366322</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-18888577.27566322</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-19279614.50756322</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-19279485.50756322</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-19352442.39756322</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-18904021.35414467</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-18768877.93622691</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-18918256.57592691</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-18830223.46292691</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-18817093.46292691</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-18590925.8024269</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-17445204.76844466</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-21968891.31014466</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-21362659.04284466</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-21362494.81124466</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-21310632.49664466</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-21282946.87914466</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-21279994.35224466</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-21276222.41284467</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-21269087.92384467</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-21292631.46244467</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-21292503.46244467</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-21311731.50014467</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-21294071.05974467</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-21274448.34814467</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-20733197.21880632</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-20770697.32810632</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-20694427.32290632</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-20629595.60380632</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-20750877.20980632</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-20715708.92890632</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-20683290.20380632</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-20684747.85090632</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-20707726.00600632</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-20707596.00600632</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-20732965.24030632</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-20733134.49070632</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-20733004.49070632</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-20735790.75260632</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-20898513.96680632</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-23481983.98330632</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-23481853.98330632</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-23689682.74040632</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-24986743.01789124</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-24997986.10299123</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-17941887.30010632</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>-15725899.42575976</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>-14256022.88283136</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>-13344805.68823136</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>-11603029.49838137</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>-11767536.07738137</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-12162031.88278137</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-12051201.62028137</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-11991442.83868137</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-9234172.403487012</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>6749718.598225974</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>9840384.872225974</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>9799014.018045444</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>9271669.567745443</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>9271669.567745443</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>9058106.060745444</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>8819409.275545444</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>8919409.275545444</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>9116108.584045444</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>9202952.659245444</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>9325809.38379138</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>9477708.744745445</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>8736270.11329951</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>8856411.93009951</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>8509659.328599509</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>8475249.813399509</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>7009520.600899507</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>7624932.083499507</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>5775638.432699507</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>7688275.897599508</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>7717949.420599508</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>7355558.778799508</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>7355981.748799508</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>7271579.146799508</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>7257158.461799508</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>7098454.638999508</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>6729323.112299507</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>6798017.250599507</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>6798137.250599507</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
